--- a/Input/Takaful_Nas/benefits.xlsx
+++ b/Input/Takaful_Nas/benefits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="136">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -315,7 +315,7 @@
     <t xml:space="preserve">NE/Dubai</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-04-09</t>
+    <t xml:space="preserve">2024-02-12</t>
   </si>
   <si>
     <t xml:space="preserve">10%/</t>
@@ -421,9 +421,19 @@
     <t xml:space="preserve">6 sessions per year subject to pre-approval</t>
   </si>
   <si>
-    <t xml:space="preserve">OP- 10 visits and 4 ante-natal ultrasound scans with 10% co-pay
-IP- Normal Delivery covered up to AED 7,000 with 10% co-pay
-C-Section covered up to AED 10,000 with 10% co-pay</t>
+    <t xml:space="preserve">OP- 10 visits and 4 ante-natal ultrasound scans with 10% co-pay IP- Covered up to AED 10,000 with 10% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAS VN (OP Restricted to Clinics)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10% up to AED 15 for General Practitioners /  20% up to AED 25 for Specialists / Medicines covered up to AED 4,500 with 15% co-pay / Diagnostics covered in full with 10% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to AED 4,500 subject to 15% co-pay</t>
   </si>
 </sst>
 </file>
@@ -434,7 +444,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -470,9 +480,26 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b val="true"/>
+      <u val="single"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -524,7 +551,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -549,18 +576,34 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -626,21 +669,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BJ6"/>
+  <dimension ref="A1:BJ7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AZ1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BL2" activeCellId="0" sqref="BL2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="56" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="32.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="56.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="14.78"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="58" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1435,7 +1478,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="133.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>124</v>
       </c>
@@ -1499,7 +1542,7 @@
         <v>130</v>
       </c>
       <c r="W6" s="3"/>
-      <c r="X6" s="1" t="s">
+      <c r="X6" s="7" t="s">
         <v>131</v>
       </c>
       <c r="Y6" s="1" t="s">
@@ -1580,6 +1623,154 @@
         <v>92</v>
       </c>
       <c r="BD6" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="123.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="W7" s="3"/>
+      <c r="X7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AX7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BD7" s="1" t="s">
         <v>92</v>
       </c>
     </row>
